--- a/Raj Chudasama/2022-12-14/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-14-22.xlsx
+++ b/Raj Chudasama/2022-12-14/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-14-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>Guest Name</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>01-Jun-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14-Dec-22</t>
   </si>
   <si>
     <t>04-Apr-22</t>
@@ -576,10 +573,10 @@
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -605,10 +602,10 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,10 +625,10 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +651,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,10 +677,10 @@
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -706,10 +703,10 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,13 +723,13 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,10 +752,10 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,10 +775,10 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -804,10 +801,10 @@
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -827,10 +824,10 @@
         <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -850,10 +847,10 @@
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -876,10 +873,10 @@
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -902,10 +899,10 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -925,10 +922,10 @@
         <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -948,13 +945,13 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -974,10 +971,10 @@
         <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1000,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1020,13 +1017,13 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1043,13 +1040,13 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1062,17 +1059,20 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
